--- a/downloaded_files/PHYS102_Lecture-35330.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35330.xlsx
@@ -204,15 +204,6 @@
     <x:t xml:space="preserve">ghazel </x:t>
   </x:si>
   <x:si>
-    <x:t>1240354</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد  وليد  عبد الفتاح ليمونة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Walid Abdelfatah laimona</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220192</x:t>
   </x:si>
   <x:si>
@@ -247,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240147</x:t>
@@ -1433,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6677589931</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6677589931</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45927.6185469907</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/PHYS102_Lecture-35330.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35330.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>SARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240070</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1081,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4171456366</x:v>
+        <x:v>45928.4713758449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4148922106</x:v>
+        <x:v>45909.4171456366</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45908.4148922106</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0994185532</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5483252662</x:v>
+        <x:v>45912.0994185532</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45914.5483252662</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6677589931</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6677589931</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.6185469907</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45927.6185469907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6863828357</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6863828357</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6646291667</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35330.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35330.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>mariam ahmed mahmoud samy bishr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم سمير ماهر مسيحه صليب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Samir Maher Massiha</x:t>
   </x:si>
   <x:si>
     <x:t>1240164</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6863828357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6863828357</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6646291667</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35330.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35330.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Habiba essam kamel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه هانى محمد محيى الدين سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Hany Mohamed Mohyeldin Sayed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240052</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -743,7 +752,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.730624999999996" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.480625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.540625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -953,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45931.6271033565</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4207826736</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45908.4207826736</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.4713758449</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4171456366</x:v>
+        <x:v>45928.4713758449</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4148922106</x:v>
+        <x:v>45909.4171456366</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45908.4148922106</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0994185532</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5483252662</x:v>
+        <x:v>45912.0994185532</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45914.5483252662</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6677589931</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6677589931</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.6185469907</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45927.6185469907</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6863828357</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6863828357</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6646291667</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35330.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35330.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>SARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240070</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1122,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.4713758449</x:v>
+        <x:v>45909.4171456366</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4171456366</x:v>
+        <x:v>45908.4148922106</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4148922106</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45912.0994185532</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0994185532</x:v>
+        <x:v>45914.5483252662</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5483252662</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6677589931</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6677589931</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45927.6185469907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.6185469907</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6863828357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6863828357</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6646291667</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
